--- a/tests/fixtures/uncaught-error.xlsx
+++ b/tests/fixtures/uncaught-error.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Main root" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,8 +16,10 @@
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Tests!$A$1:$C$4</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Main root'!$A$1:$B$2</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Main root'!$A$1:$B$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Main root'!$A$1:$B$2</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Tests!$A$1:$C$4</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">Tests!$A$1:$C$4</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Tests!$A$1:$C$4</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -29,45 +31,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>Identifier</t>
-  </si>
-  <si>
-    <t>root</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>€</t>
-  </si>
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>Float1</t>
-  </si>
-  <si>
-    <t>Bool1</t>
-  </si>
-  <si>
-    <t>node_0</t>
-  </si>
-  <si>
-    <t>node_1</t>
-  </si>
-  <si>
-    <t>node_2</t>
-  </si>
-  <si>
-    <t>node_3</t>
-  </si>
-  <si>
-    <t>node_4</t>
-  </si>
-  <si>
-    <t>'</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+  <si>
+    <t xml:space="preserve">Identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">root</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">€</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Float1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bool1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">node_0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">node_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">node_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">node_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">node_4</t>
   </si>
 </sst>
 </file>
@@ -75,7 +77,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="M/D/YYYY"/>
   </numFmts>
   <fonts count="6">
@@ -182,7 +184,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -277,12 +279,12 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -326,7 +328,7 @@
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
@@ -383,26 +385,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="4" t="n">
-        <v>0</v>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>7</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/tests/fixtures/uncaught-error.xlsx
+++ b/tests/fixtures/uncaught-error.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13965" tabRatio="989" activeTab="1"/>
+    <workbookView windowWidth="20295" windowHeight="6840" tabRatio="989" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="!Main root" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='MainRoot'</t>
+    <t>!!ObjTables Type='Data' Id='MainRoot'</t>
   </si>
   <si>
     <t>!Identifier</t>
@@ -41,7 +41,7 @@
     <t>€</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='Test'</t>
+    <t>!!ObjTables Type='Data' Id='Test'</t>
   </si>
   <si>
     <t>!Id</t>
@@ -76,10 +76,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -107,10 +107,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -122,16 +123,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,9 +145,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -155,12 +199,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -168,24 +213,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,51 +237,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,6 +250,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -273,79 +273,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -357,103 +447,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,21 +464,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -496,6 +481,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,138 +567,138 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/tests/fixtures/uncaught-error.xlsx
+++ b/tests/fixtures/uncaught-error.xlsx
@@ -1,266 +1,212 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="20295" windowHeight="6840" tabRatio="989" activeTab="1"/>
+    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="989" visibility="visible" windowHeight="6840" windowWidth="20295"/>
   </bookViews>
   <sheets>
-    <sheet name="!Main root" sheetId="1" r:id="rId1"/>
-    <sheet name="!Tests" sheetId="2" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Main root" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Tests" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'!Main root'!$A$2:$B$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'!Tests'!$A$2:$C$7</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="0">'!Main root'!$A$2:$B$3</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="0">'!Main root'!$A$2:$B$3</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="1">'!Tests'!$A$2:$C$5</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="1">'!Tests'!$A$2:$C$5</definedName>
+    <definedName localSheetId="0" name="_FilterDatabase_0">'!Main root'!$A$2:$B$3</definedName>
+    <definedName localSheetId="0" name="_FilterDatabase_0_0">'!Main root'!$A$2:$B$3</definedName>
+    <definedName localSheetId="1" name="_FilterDatabase_0">'!Tests'!$A$2:$C$5</definedName>
+    <definedName localSheetId="1" name="_FilterDatabase_0_0">'!Tests'!$A$2:$C$5</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'!!Main root'!$A$2:$B$3</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">'!!Tests'!$A$2:$C$7</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
-  <si>
-    <t>!!ObjTables Type='Data' Id='MainRoot'</t>
-  </si>
-  <si>
-    <t>!Identifier</t>
-  </si>
-  <si>
-    <t>root</t>
-  </si>
-  <si>
-    <t>!Name</t>
-  </si>
-  <si>
-    <t>€</t>
-  </si>
-  <si>
-    <t>!!ObjTables Type='Data' Id='Test'</t>
-  </si>
-  <si>
-    <t>!Id</t>
-  </si>
-  <si>
-    <t>!Float1</t>
-  </si>
-  <si>
-    <t>!Bool1</t>
-  </si>
-  <si>
-    <t>node_0</t>
-  </si>
-  <si>
-    <t>node_1</t>
-  </si>
-  <si>
-    <t>node_2</t>
-  </si>
-  <si>
-    <t>node_3</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>node_4</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+  <numFmts count="1">
+    <numFmt formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" numFmtId="164"/>
   </numFmts>
   <fonts count="24">
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
       <color rgb="FF000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <b val="1"/>
       <color rgb="FF000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="1"/>
-    </font>
-    <font>
+      <color rgb="FF000000"/>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
+    </font>
+    <font>
       <name val="Arial"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
       <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
       <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <b val="1"/>
       <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="34">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -566,283 +512,210 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="33" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="21" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="8" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="164"/>
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="12" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="10" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="8" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="41"/>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="42"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="23" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="22" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="43"/>
+    <xf applyAlignment="1" borderId="4" fillId="11" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="18" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="58" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="52" name="60% - Accent6" xfId="1"/>
+    <cellStyle builtinId="51" name="40% - Accent6" xfId="2"/>
+    <cellStyle builtinId="48" name="60% - Accent5" xfId="3"/>
+    <cellStyle builtinId="49" name="Accent6" xfId="4"/>
+    <cellStyle builtinId="47" name="40% - Accent5" xfId="5"/>
+    <cellStyle builtinId="46" name="20% - Accent5" xfId="6"/>
+    <cellStyle builtinId="44" name="60% - Accent4" xfId="7"/>
+    <cellStyle builtinId="45" name="Accent5" xfId="8"/>
+    <cellStyle builtinId="43" name="40% - Accent4" xfId="9"/>
+    <cellStyle builtinId="41" name="Accent4" xfId="10"/>
+    <cellStyle builtinId="24" name="Linked Cell" xfId="11"/>
+    <cellStyle builtinId="39" name="40% - Accent3" xfId="12"/>
+    <cellStyle builtinId="36" name="60% - Accent2" xfId="13"/>
+    <cellStyle builtinId="37" name="Accent3" xfId="14"/>
+    <cellStyle builtinId="35" name="40% - Accent2" xfId="15"/>
+    <cellStyle builtinId="34" name="20% - Accent2" xfId="16"/>
+    <cellStyle builtinId="33" name="Accent2" xfId="17"/>
+    <cellStyle builtinId="31" name="40% - Accent1" xfId="18"/>
+    <cellStyle builtinId="30" name="20% - Accent1" xfId="19"/>
+    <cellStyle builtinId="29" name="Accent1" xfId="20"/>
+    <cellStyle builtinId="28" name="Neutral" xfId="21"/>
+    <cellStyle builtinId="32" name="60% - Accent1" xfId="22"/>
+    <cellStyle builtinId="27" name="Bad" xfId="23"/>
+    <cellStyle builtinId="42" name="20% - Accent4" xfId="24"/>
+    <cellStyle builtinId="25" name="Total" xfId="25"/>
+    <cellStyle builtinId="21" name="Output" xfId="26"/>
+    <cellStyle builtinId="4" name="Currency" xfId="27"/>
+    <cellStyle builtinId="38" name="20% - Accent3" xfId="28"/>
+    <cellStyle builtinId="10" name="Note" xfId="29"/>
+    <cellStyle builtinId="20" name="Input" xfId="30"/>
+    <cellStyle builtinId="19" name="Heading 4" xfId="31"/>
+    <cellStyle builtinId="22" name="Calculation" xfId="32"/>
+    <cellStyle builtinId="26" name="Good" xfId="33"/>
+    <cellStyle builtinId="18" name="Heading 3" xfId="34"/>
+    <cellStyle builtinId="53" name="CExplanatory Text" xfId="35"/>
+    <cellStyle builtinId="16" name="Heading 1" xfId="36"/>
+    <cellStyle builtinId="6" name="Comma [0]" xfId="37"/>
+    <cellStyle builtinId="50" name="20% - Accent6" xfId="38"/>
+    <cellStyle builtinId="15" name="Title" xfId="39"/>
+    <cellStyle builtinId="7" name="Currency [0]" xfId="40"/>
+    <cellStyle builtinId="11" name="Warning Text" xfId="41"/>
+    <cellStyle builtinId="9" name="Followed Hyperlink" xfId="42"/>
+    <cellStyle builtinId="17" name="Heading 2" xfId="43"/>
+    <cellStyle builtinId="3" name="Comma" xfId="44"/>
+    <cellStyle builtinId="23" name="Check Cell" xfId="45"/>
+    <cellStyle builtinId="40" name="60% - Accent3" xfId="46"/>
+    <cellStyle builtinId="5" name="Percent" xfId="47"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="48"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00CCCCCC"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -1102,149 +975,188 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A49" sqref="A49"/>
+      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="2"/>
+      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" pane="topRight" sqref="A1"/>
+      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
+      <selection activeCell="A49" pane="bottomRight" sqref="A49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1025" width="10.6"/>
+    <col customWidth="1" max="1025" min="1" width="10.6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>0</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>!!!ObjTables ObjTablesVersion='0.0.8'</t>
+        </is>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
+    <row customHeight="1" ht="15" r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>!!ObjTables Type='Data' Id='MainRoot'</t>
+        </is>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
+    <row customHeight="1" ht="15" r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>!Identifier</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>root</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>!Name</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:B3">
-    <extLst/>
-  </autoFilter>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <autoFilter ref="A2:B3"/>
+  <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
+  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
+      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="2"/>
+      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" pane="topRight" sqref="A1"/>
+      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
+      <selection activeCell="F16" pane="bottomRight" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="2"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1025" width="10.6"/>
+    <col customWidth="1" max="1025" min="1" width="10.6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>!!ObjTables Type='Data' Id='Test'</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>!Id</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>!Float1</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>!Bool1</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>node_0</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>node_1</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>node_2</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="C5" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" ht="15" customHeight="1" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>node_3</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>node_4</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" ht="15" customHeight="1" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="2">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="2">
-        <v>5</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="2">
-        <v>7</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>13</v>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:C7">
-    <extLst/>
-  </autoFilter>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <autoFilter ref="A2:C7"/>
+  <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
+  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/tests/fixtures/uncaught-error.xlsx
+++ b/tests/fixtures/uncaught-error.xlsx
@@ -4,19 +4,19 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="989" visibility="visible" windowHeight="6840" windowWidth="20295"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="20295" windowHeight="6840" tabRatio="989" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Main root" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Tests" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="_FilterDatabase_0">'!Main root'!$A$2:$B$3</definedName>
-    <definedName localSheetId="0" name="_FilterDatabase_0_0">'!Main root'!$A$2:$B$3</definedName>
-    <definedName localSheetId="1" name="_FilterDatabase_0">'!Tests'!$A$2:$C$5</definedName>
-    <definedName localSheetId="1" name="_FilterDatabase_0_0">'!Tests'!$A$2:$C$5</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'!!Main root'!$A$2:$B$3</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">'!!Tests'!$A$2:$C$7</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="0">'!Main root'!$A$2:$B$3</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="0">'!Main root'!$A$2:$B$3</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="1">'!Tests'!$A$2:$C$5</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="1">'!Tests'!$A$2:$C$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'!!Main root'!$A$2:$B$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'!!Tests'!$A$2:$C$7</definedName>
   </definedNames>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
@@ -25,7 +25,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -512,210 +512,210 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="33" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="21" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="8" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164"/>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="12" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="10" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="8" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="41"/>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="20" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="42"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="23" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="22" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="43"/>
-    <xf applyAlignment="1" borderId="4" fillId="11" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="18" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="58" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle builtinId="52" name="60% - Accent6" xfId="1"/>
-    <cellStyle builtinId="51" name="40% - Accent6" xfId="2"/>
-    <cellStyle builtinId="48" name="60% - Accent5" xfId="3"/>
-    <cellStyle builtinId="49" name="Accent6" xfId="4"/>
-    <cellStyle builtinId="47" name="40% - Accent5" xfId="5"/>
-    <cellStyle builtinId="46" name="20% - Accent5" xfId="6"/>
-    <cellStyle builtinId="44" name="60% - Accent4" xfId="7"/>
-    <cellStyle builtinId="45" name="Accent5" xfId="8"/>
-    <cellStyle builtinId="43" name="40% - Accent4" xfId="9"/>
-    <cellStyle builtinId="41" name="Accent4" xfId="10"/>
-    <cellStyle builtinId="24" name="Linked Cell" xfId="11"/>
-    <cellStyle builtinId="39" name="40% - Accent3" xfId="12"/>
-    <cellStyle builtinId="36" name="60% - Accent2" xfId="13"/>
-    <cellStyle builtinId="37" name="Accent3" xfId="14"/>
-    <cellStyle builtinId="35" name="40% - Accent2" xfId="15"/>
-    <cellStyle builtinId="34" name="20% - Accent2" xfId="16"/>
-    <cellStyle builtinId="33" name="Accent2" xfId="17"/>
-    <cellStyle builtinId="31" name="40% - Accent1" xfId="18"/>
-    <cellStyle builtinId="30" name="20% - Accent1" xfId="19"/>
-    <cellStyle builtinId="29" name="Accent1" xfId="20"/>
-    <cellStyle builtinId="28" name="Neutral" xfId="21"/>
-    <cellStyle builtinId="32" name="60% - Accent1" xfId="22"/>
-    <cellStyle builtinId="27" name="Bad" xfId="23"/>
-    <cellStyle builtinId="42" name="20% - Accent4" xfId="24"/>
-    <cellStyle builtinId="25" name="Total" xfId="25"/>
-    <cellStyle builtinId="21" name="Output" xfId="26"/>
-    <cellStyle builtinId="4" name="Currency" xfId="27"/>
-    <cellStyle builtinId="38" name="20% - Accent3" xfId="28"/>
-    <cellStyle builtinId="10" name="Note" xfId="29"/>
-    <cellStyle builtinId="20" name="Input" xfId="30"/>
-    <cellStyle builtinId="19" name="Heading 4" xfId="31"/>
-    <cellStyle builtinId="22" name="Calculation" xfId="32"/>
-    <cellStyle builtinId="26" name="Good" xfId="33"/>
-    <cellStyle builtinId="18" name="Heading 3" xfId="34"/>
-    <cellStyle builtinId="53" name="CExplanatory Text" xfId="35"/>
-    <cellStyle builtinId="16" name="Heading 1" xfId="36"/>
-    <cellStyle builtinId="6" name="Comma [0]" xfId="37"/>
-    <cellStyle builtinId="50" name="20% - Accent6" xfId="38"/>
-    <cellStyle builtinId="15" name="Title" xfId="39"/>
-    <cellStyle builtinId="7" name="Currency [0]" xfId="40"/>
-    <cellStyle builtinId="11" name="Warning Text" xfId="41"/>
-    <cellStyle builtinId="9" name="Followed Hyperlink" xfId="42"/>
-    <cellStyle builtinId="17" name="Heading 2" xfId="43"/>
-    <cellStyle builtinId="3" name="Comma" xfId="44"/>
-    <cellStyle builtinId="23" name="Check Cell" xfId="45"/>
-    <cellStyle builtinId="40" name="60% - Accent3" xfId="46"/>
-    <cellStyle builtinId="5" name="Percent" xfId="47"/>
-    <cellStyle builtinId="8" name="Hyperlink" xfId="48"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -983,33 +983,33 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="2"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="A49" pane="bottomRight" sqref="A49"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
-    <col customWidth="1" max="1025" min="1" width="10.6"/>
+    <col width="10.6" customWidth="1" min="1" max="1025"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!!ObjTables ObjTablesVersion='0.0.8'</t>
+          <t>!!!ObjTables objTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="2">
+    <row r="2" ht="15" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='MainRoot'</t>
+          <t>!!ObjTables type='Data' id='MainRoot'</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="3">
+    <row r="3" ht="15" customHeight="1">
       <c r="A3" s="1" t="inlineStr">
         <is>
           <t>!Identifier</t>
@@ -1035,8 +1035,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A2:B3"/>
-  <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -1049,26 +1049,26 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="2"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="F16" pane="bottomRight" sqref="F16"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
-    <col customWidth="1" max="1025" min="1" width="10.6"/>
+    <col width="10.6" customWidth="1" min="1" max="1025"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Test'</t>
+          <t>!!ObjTables type='Data' id='Test'</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="2">
+    <row r="2" ht="15" customHeight="1">
       <c r="A2" s="1" t="inlineStr">
         <is>
           <t>!Id</t>
@@ -1085,7 +1085,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="3">
+    <row r="3" ht="15" customHeight="1">
       <c r="A3" s="1" t="inlineStr">
         <is>
           <t>node_0</t>
@@ -1098,7 +1098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="4">
+    <row r="4" ht="15" customHeight="1">
       <c r="A4" s="1" t="inlineStr">
         <is>
           <t>node_1</t>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="5">
+    <row r="5" ht="15" customHeight="1">
       <c r="A5" s="1" t="inlineStr">
         <is>
           <t>node_2</t>
@@ -1156,7 +1156,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A2:C7"/>
-  <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/tests/fixtures/uncaught-error.xlsx
+++ b/tests/fixtures/uncaught-error.xlsx
@@ -1005,7 +1005,7 @@
     <row r="2" ht="15" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='MainRoot'</t>
+          <t>!!ObjTables type='Data' class='MainRoot'</t>
         </is>
       </c>
     </row>
@@ -1064,7 +1064,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Test'</t>
+          <t>!!ObjTables type='Data' class='Test'</t>
         </is>
       </c>
     </row>
